--- a/data/Geografie/Reiskirchen/Reiskirchen.xlsx
+++ b/data/Geografie/Reiskirchen/Reiskirchen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\PlatformIO\Projects\TTS\data\Geografie\Reiskirchen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D9338-CAE6-414D-AD64-004F3CFADC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6E6428-B627-48FC-9C86-7085057AADEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{1FB75448-67D7-4370-812B-51B2256DB1F7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{1FB75448-67D7-4370-812B-51B2256DB1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Reiskirchen" sheetId="2" r:id="rId1"/>
@@ -1048,11 +1048,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EFA3BB-260B-46AA-8CC2-81D94112A99D}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2073,10 +2076,13 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2287,10 +2293,13 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2612,11 +2621,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FFA782-1E61-4B21-934A-879AD8D81FEA}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3107,10 +3119,13 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD19"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3391,10 +3406,13 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3702,11 +3720,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C05394-9DEB-4328-B8DE-5C93780CD8EF}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD67"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4196,11 +4217,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61375B86-1AC3-4C1A-AAF8-51CC53374DEF}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
